--- a/data/542/BOKNA/old/Monthly_NA1.xlsx
+++ b/data/542/BOKNA/old/Monthly_NA1.xlsx
@@ -1160,8 +1160,10 @@
     <col min="743" max="743" width="9.0" customWidth="true"/>
     <col min="744" max="744" width="9.0" customWidth="true"/>
     <col min="745" max="745" width="9.0" customWidth="true"/>
-    <col min="746" max="746" width="4.0" customWidth="true"/>
-    <col min="747" max="747" width="4.0" customWidth="true"/>
+    <col min="746" max="746" width="9.0" customWidth="true"/>
+    <col min="747" max="747" width="9.0" customWidth="true"/>
+    <col min="748" max="748" width="4.0" customWidth="true"/>
+    <col min="749" max="749" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4900,6 +4902,16 @@
           <t>2021/10</t>
         </is>
       </c>
+      <c r="ABT1" s="2" t="inlineStr">
+        <is>
+          <t>2021/11</t>
+        </is>
+      </c>
+      <c r="ABU1" s="2" t="inlineStr">
+        <is>
+          <t>2021/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7387,12 +7399,18 @@
       <c r="ABQ2" s="3" t="n">
         <v>101.3</v>
       </c>
-      <c r="ABR2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABS2" s="1" t="inlineStr">
+      <c r="ABR2" s="3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="ABS2" s="3" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="ABT2" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABU2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9884,12 +9902,18 @@
       <c r="ABQ3" s="3" t="n">
         <v>121.1</v>
       </c>
-      <c r="ABR3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABS3" s="1" t="inlineStr">
+      <c r="ABR3" s="3" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="ABS3" s="3" t="n">
+        <v>122.2</v>
+      </c>
+      <c r="ABT3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABU3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12381,12 +12405,18 @@
       <c r="ABQ4" s="3" t="n">
         <v>128.2</v>
       </c>
-      <c r="ABR4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABS4" s="1" t="inlineStr">
+      <c r="ABR4" s="3" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="ABS4" s="3" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="ABT4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABU4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14876,14 +14906,20 @@
         <v>117.0</v>
       </c>
       <c r="ABQ5" s="3" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="ABR5" s="3" t="n">
         <v>117.2</v>
       </c>
-      <c r="ABR5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABS5" s="1" t="inlineStr">
+      <c r="ABS5" s="3" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="ABT5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABU5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17256,7 +17292,13 @@
       <c r="ABR6" s="3" t="n">
         <v>108.83</v>
       </c>
-      <c r="ABS6" s="1" t="inlineStr">
+      <c r="ABS6" s="3" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="ABT6" s="3" t="n">
+        <v>109.41</v>
+      </c>
+      <c r="ABU6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20109,7 +20151,13 @@
       <c r="ABR7" s="3" t="n">
         <v>123.66</v>
       </c>
-      <c r="ABS7" s="1" t="inlineStr">
+      <c r="ABS7" s="3" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="ABT7" s="3" t="n">
+        <v>122.36</v>
+      </c>
+      <c r="ABU7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22962,7 +23010,13 @@
       <c r="ABR8" s="3" t="n">
         <v>104.02</v>
       </c>
-      <c r="ABS8" s="1" t="inlineStr">
+      <c r="ABS8" s="3" t="n">
+        <v>104.07</v>
+      </c>
+      <c r="ABT8" s="3" t="n">
+        <v>104.03</v>
+      </c>
+      <c r="ABU8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25815,7 +25869,13 @@
       <c r="ABR9" s="3" t="n">
         <v>105.01</v>
       </c>
-      <c r="ABS9" s="1" t="inlineStr">
+      <c r="ABS9" s="3" t="n">
+        <v>105.35</v>
+      </c>
+      <c r="ABT9" s="3" t="n">
+        <v>106.73</v>
+      </c>
+      <c r="ABU9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28668,7 +28728,13 @@
       <c r="ABR10" s="3" t="n">
         <v>105.49</v>
       </c>
-      <c r="ABS10" s="1" t="inlineStr">
+      <c r="ABS10" s="3" t="n">
+        <v>106.12</v>
+      </c>
+      <c r="ABT10" s="3" t="n">
+        <v>106.28</v>
+      </c>
+      <c r="ABU10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -31521,7 +31587,13 @@
       <c r="ABR11" s="3" t="n">
         <v>110.81</v>
       </c>
-      <c r="ABS11" s="1" t="inlineStr">
+      <c r="ABS11" s="3" t="n">
+        <v>111.74</v>
+      </c>
+      <c r="ABT11" s="3" t="n">
+        <v>112.02</v>
+      </c>
+      <c r="ABU11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -34374,7 +34446,13 @@
       <c r="ABR12" s="3" t="n">
         <v>104.49</v>
       </c>
-      <c r="ABS12" s="1" t="inlineStr">
+      <c r="ABS12" s="3" t="n">
+        <v>104.43</v>
+      </c>
+      <c r="ABT12" s="3" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="ABU12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -37227,7 +37305,13 @@
       <c r="ABR13" s="3" t="n">
         <v>107.79</v>
       </c>
-      <c r="ABS13" s="1" t="inlineStr">
+      <c r="ABS13" s="3" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="ABT13" s="3" t="n">
+        <v>111.48</v>
+      </c>
+      <c r="ABU13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -40080,7 +40164,13 @@
       <c r="ABR14" s="3" t="n">
         <v>94.63</v>
       </c>
-      <c r="ABS14" s="1" t="inlineStr">
+      <c r="ABS14" s="3" t="n">
+        <v>94.26</v>
+      </c>
+      <c r="ABT14" s="3" t="n">
+        <v>94.85</v>
+      </c>
+      <c r="ABU14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -42933,7 +43023,13 @@
       <c r="ABR15" s="3" t="n">
         <v>103.23</v>
       </c>
-      <c r="ABS15" s="1" t="inlineStr">
+      <c r="ABS15" s="3" t="n">
+        <v>103.45</v>
+      </c>
+      <c r="ABT15" s="3" t="n">
+        <v>101.82</v>
+      </c>
+      <c r="ABU15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -45786,7 +45882,13 @@
       <c r="ABR16" s="3" t="n">
         <v>101.61</v>
       </c>
-      <c r="ABS16" s="1" t="inlineStr">
+      <c r="ABS16" s="3" t="n">
+        <v>101.63</v>
+      </c>
+      <c r="ABT16" s="3" t="n">
+        <v>101.64</v>
+      </c>
+      <c r="ABU16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -48639,7 +48741,13 @@
       <c r="ABR17" s="3" t="n">
         <v>114.59</v>
       </c>
-      <c r="ABS17" s="1" t="inlineStr">
+      <c r="ABS17" s="3" t="n">
+        <v>115.03</v>
+      </c>
+      <c r="ABT17" s="3" t="n">
+        <v>115.61</v>
+      </c>
+      <c r="ABU17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -51492,7 +51600,13 @@
       <c r="ABR18" s="3" t="n">
         <v>113.0</v>
       </c>
-      <c r="ABS18" s="1" t="inlineStr">
+      <c r="ABS18" s="3" t="n">
+        <v>113.12</v>
+      </c>
+      <c r="ABT18" s="3" t="n">
+        <v>112.52</v>
+      </c>
+      <c r="ABU18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -54105,7 +54219,13 @@
       <c r="ABR19" s="3" t="n">
         <v>108.25</v>
       </c>
-      <c r="ABS19" s="1" t="inlineStr">
+      <c r="ABS19" s="3" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="ABT19" s="3" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="ABU19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
